--- a/examples/sensitivity/data/scenarios.xlsx
+++ b/examples/sensitivity/data/scenarios.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C295C2-F7A3-4C4E-826D-65C8F257A991}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325A848E-35D2-479C-9B8B-733C621DD6ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SolverSettings" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="65">
   <si>
     <t>Scenario</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>include_RPS</t>
   </si>
 </sst>
 </file>
@@ -534,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:AA1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,6 +754,29 @@
       </c>
       <c r="G9">
         <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1478,7 +1504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/examples/sensitivity/data/scenarios.xlsx
+++ b/examples/sensitivity/data/scenarios.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325A848E-35D2-479C-9B8B-733C621DD6ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925694CC-1CEF-4F3D-8C04-A3D185670531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SolverSettings" sheetId="2" r:id="rId1"/>
-    <sheet name="PowerPlants" sheetId="1" r:id="rId2"/>
-    <sheet name="Fuels" sheetId="3" r:id="rId3"/>
-    <sheet name="Connections" sheetId="4" r:id="rId4"/>
+    <sheet name="About" sheetId="5" r:id="rId1"/>
+    <sheet name="SolverSettings" sheetId="2" r:id="rId2"/>
+    <sheet name="PowerPlants" sheetId="1" r:id="rId3"/>
+    <sheet name="Fuels" sheetId="3" r:id="rId4"/>
+    <sheet name="Connections" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="87">
   <si>
     <t>Scenario</t>
   </si>
@@ -103,9 +104,6 @@
     <t>include_ramping</t>
   </si>
   <si>
-    <t>delay_newBuilds</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -218,13 +216,242 @@
   </si>
   <si>
     <t>include_RPS</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Modeling with Temoa often involves running multiple scenarios where each scenario contains different combinations of technologies and varying constraints.The accompanying data.xlsx file is designed to act as a library that contains all of the technologies relevant to an study. The purpose of this scenarios.xlsx file is to specify which combinations of technologies are used in each scenario. Scenario settings are divided into SolverSettings, PowerPlants, Fuels and Connections each with a separate sheet. The columns in each sheet define a new scenario.</t>
+  </si>
+  <si>
+    <t>SolverSettings</t>
+  </si>
+  <si>
+    <t>System wide options for solver constraints</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>include_baseload</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Indicate 'Y' to constrain PowerPlants marked as 'baseload' to always run throughout a given representative</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>include_reserve_margin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Indicate 'Y' to require the system to build more capacity than required to meet demand, only using PowerPlants marked as 'Reserve'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>include_ramping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Indicate 'Y' to constrain the rate PowerPlants start and stop based on their supplied 'RampRate' value</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MaxLoan_yrs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - all power plants are purchased on loans, the life of the loan is the minimum of the power plant lifetime, and this value</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>include_RPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - indicate 'Y' to include the renewable portfolio standard (RPS) constraint</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>include_growth_limit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - indicate 'Y' to include the growth limit constraint: MaxCapacity = MaxGrowthRate * Capacity + MinGrowthSeed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MaxGrowthRate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - used in equation above if include_growth_limit = 'Y', units are [%]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MinGrowthSeed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - used in equation above if include_growth_limit = 'Y', units are [MW]</t>
+    </r>
+  </si>
+  <si>
+    <t>PowerPlants</t>
+  </si>
+  <si>
+    <t>Indicate to include a PowerPlant in a scenario by entering 'Y', any other value will exclude the PowerPlant from the scenario</t>
+  </si>
+  <si>
+    <t>Each row corresponds with a different PowerPlant in data.xlsx, and each column a user-defined scenario</t>
+  </si>
+  <si>
+    <t>Temoa will throw an error if a PowerPlant s included but the corresponding Fuel is not included</t>
+  </si>
+  <si>
+    <t>Fuels</t>
+  </si>
+  <si>
+    <t>Indicate to include a Fuel in a scenario by entering 'Y', any other value will exclude the Fuel from the scenario</t>
+  </si>
+  <si>
+    <t>Each row corresponds with a different Fuel in data.xlsx, and each column a user-defined scenario</t>
+  </si>
+  <si>
+    <t>Temoa will throw an error if a Fuel is included but no PowerPlant can use it</t>
+  </si>
+  <si>
+    <t>Connections</t>
+  </si>
+  <si>
+    <t>Indicate to include a Connection by entering 'Y', any other value will exclude the Connection from the scenario</t>
+  </si>
+  <si>
+    <t>Each row corresponds with a different Connection in data.xlsx, and each column a user-defined scenario</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,13 +459,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -253,10 +524,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,12 +826,155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA36A56-E79F-4C6A-9436-33D684E3F151}">
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="136.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -550,26 +983,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>62</v>
-      </c>
-      <c r="G1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -577,22 +1010,22 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -600,22 +1033,22 @@
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -623,160 +1056,137 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B8" s="14">
+        <v>100</v>
+      </c>
+      <c r="C8" s="14">
+        <v>100</v>
+      </c>
+      <c r="D8" s="14">
+        <v>100</v>
+      </c>
+      <c r="E8" s="14">
+        <v>100</v>
+      </c>
+      <c r="F8" s="14">
+        <v>100</v>
+      </c>
+      <c r="G8" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8">
+      <c r="B9" s="14">
         <v>1000</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="14">
         <v>1000</v>
       </c>
-      <c r="D8">
+      <c r="D9" s="14">
         <v>1000</v>
       </c>
-      <c r="E8">
+      <c r="E9" s="14">
         <v>1000</v>
       </c>
-      <c r="F8">
+      <c r="F9" s="14">
         <v>1000</v>
       </c>
-      <c r="G8">
+      <c r="G9" s="14">
         <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9">
-        <v>30</v>
-      </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
-      <c r="D9">
-        <v>30</v>
-      </c>
-      <c r="E9">
-        <v>30</v>
-      </c>
-      <c r="F9">
-        <v>30</v>
-      </c>
-      <c r="G9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -785,13 +1195,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="B1:G1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -799,26 +1207,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>62</v>
-      </c>
-      <c r="G1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -826,22 +1234,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -849,22 +1257,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -872,22 +1280,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -895,22 +1303,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -918,22 +1326,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -941,22 +1349,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -964,22 +1372,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -987,22 +1395,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1010,22 +1418,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1033,22 +1441,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1056,22 +1464,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1079,13 +1487,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1093,43 +1501,43 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1137,13 +1545,13 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1151,13 +1559,13 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1165,10 +1573,10 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1176,10 +1584,10 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1187,13 +1595,13 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1201,24 +1609,24 @@
         <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1226,13 +1634,13 @@
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1240,10 +1648,10 @@
         <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1251,10 +1659,10 @@
         <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1263,7 +1671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -1275,224 +1683,224 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>62</v>
-      </c>
-      <c r="G1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1500,11 +1908,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1512,266 +1922,266 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>62</v>
-      </c>
-      <c r="G1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
